--- a/database/insert文/ミドル.xlsx
+++ b/database/insert文/ミドル.xlsx
@@ -56,7 +56,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO top_event VALUES (</t>
+    <t>INSERT INTO middle_event VALUES (</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,18 +463,19 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE($A$1,A3,$C$1,$D$1,C3,D1,B1)</f>
-        <v>INSERT INTO top_event VALUES (0,"aaaaa");</v>
+        <f>CONCATENATE($A$1,A3,$C$1,B3,C1,$D$1,C3,D1,B1)</f>
+        <v>INSERT INTO middle_event VALUES (0,1,"aaaaa");</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/insert文/ミドル.xlsx
+++ b/database/insert文/ミドル.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -57,6 +53,33 @@
   </si>
   <si>
     <t>INSERT INTO middle_event VALUES (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓球</t>
+    <rPh sb="0" eb="2">
+      <t>タッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フットサル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスケットボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレーボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトミントン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドッチビー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -422,17 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -455,22 +478,97 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$B$1)</f>
+        <v>INSERT INTO middle_event VALUES (1,1,"卓球");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D8" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,$D$1,C4,$D$1,$B$1)</f>
+        <v>INSERT INTO middle_event VALUES (2,1,"バスケットボール");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO middle_event VALUES (3,1,"フットサル");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO middle_event VALUES (4,1,"バレーボール");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO middle_event VALUES (5,1,"バトミントン");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE($A$1,A3,$C$1,B3,C1,$D$1,C3,D1,B1)</f>
-        <v>INSERT INTO middle_event VALUES (0,1,"aaaaa");</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO middle_event VALUES (6,1,"ドッチビー");</v>
       </c>
     </row>
   </sheetData>

--- a/database/insert文/ミドル.xlsx
+++ b/database/insert文/ミドル.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -56,26 +56,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フットサル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドッチビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体競技</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>卓球</t>
     <rPh sb="0" eb="2">
       <t>タッキュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フットサル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バスケットボール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バレーボール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バトミントン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -445,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -482,23 +496,23 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$B$1)</f>
-        <v>INSERT INTO middle_event VALUES (1,1,"卓球");</v>
+        <v>INSERT INTO middle_event VALUES (null,1,"バスケ");</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -507,68 +521,83 @@
         <v>10</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D8" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,$D$1,C4,$D$1,$B$1)</f>
-        <v>INSERT INTO middle_event VALUES (2,1,"バスケットボール");</v>
+        <f t="shared" ref="D4:D9" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,$D$1,C4,$D$1,$B$1)</f>
+        <v>INSERT INTO middle_event VALUES (null,1,"バレー");</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (3,1,"フットサル");</v>
+        <v>INSERT INTO middle_event VALUES (null,1,"フットサル");</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (4,1,"バレーボール");</v>
+        <v>INSERT INTO middle_event VALUES (null,1,"ドッチビー");</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (5,1,"バトミントン");</v>
+        <v>INSERT INTO middle_event VALUES (null,1,"全体競技");</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (6,1,"ドッチビー");</v>
+        <v>INSERT INTO middle_event VALUES (null,1,"卓球");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO middle_event VALUES (null,1,"ドッチビー");</v>
       </c>
     </row>
   </sheetData>

--- a/database/insert文/ミドル.xlsx
+++ b/database/insert文/ミドル.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>ドッチビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/10:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/13:15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,11 +190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -459,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -481,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,10 +509,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -505,12 +528,18 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$B$1)</f>
-        <v>INSERT INTO middle_event VALUES (null,1,"バスケ");</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,$D$1,C3,$D$1,$C$1,$D$1,$E$1,D3,$D$1,$C$1,$D$1,D3,$D$1,$B$1)</f>
+        <v>INSERT INTO middle_event VALUES (null,1,"バスケ","2018/11/12/10:30","2018/11/12/10:30");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -520,12 +549,18 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D9" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,$D$1,C4,$D$1,$B$1)</f>
-        <v>INSERT INTO middle_event VALUES (null,1,"バレー");</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F9" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,$D$1,C4,$D$1,$C$1,$D$1,$E$1,D4,$D$1,$C$1,$D$1,D4,$D$1,$B$1)</f>
+        <v>INSERT INTO middle_event VALUES (null,1,"バレー","2018/11/12/10:30","2018/11/12/10:30");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -535,12 +570,18 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (null,1,"フットサル");</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>INSERT INTO middle_event VALUES (null,1,"フットサル","2018/11/12/10:30","2018/11/12/10:30");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -550,12 +591,18 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (null,1,"ドッチビー");</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>INSERT INTO middle_event VALUES (null,1,"ドッチビー","2018/11/12/10:30","2018/11/12/10:30");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -565,12 +612,18 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (null,1,"全体競技");</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>INSERT INTO middle_event VALUES (null,1,"全体競技","2018/11/12/10:30","2018/11/12/10:30");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -580,12 +633,18 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (null,1,"卓球");</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>INSERT INTO middle_event VALUES (null,1,"卓球","2018/11/12/10:30","2018/11/12/10:30");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -595,9 +654,15 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO middle_event VALUES (null,1,"ドッチビー");</v>
+        <v>INSERT INTO middle_event VALUES (null,1,"ドッチビー","2018/11/12/10:30","2018/11/12/10:30");</v>
       </c>
     </row>
   </sheetData>
